--- a/public/templates/Excel/SummaryReport.xlsx
+++ b/public/templates/Excel/SummaryReport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Thuc_Tap_TN\Timekeeper-Face-Server\public\templates\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA4D09EA-B5BA-43F9-8509-14AD065692F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3B6FF09-E0DF-4683-BE09-DE3C9EF83CB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,10 +84,10 @@
     <t>Vị trí công việc</t>
   </si>
   <si>
-    <t>Số phút đi muộn, về sớm</t>
-  </si>
-  <si>
     <t>Số lần đi muộn/ về sớm</t>
+  </si>
+  <si>
+    <t>Số giờ đi muộn, về sớm</t>
   </si>
 </sst>
 </file>
@@ -643,7 +643,7 @@
       <pane xSplit="3" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="N12" sqref="N12"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -779,10 +779,10 @@
         <v>7</v>
       </c>
       <c r="L6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="M6" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="N6" s="3" t="s">
         <v>8</v>
